--- a/Bostadsrattspriser.xlsx
+++ b/Bostadsrattspriser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus Turesson\Desktop\PythonProject4School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEDC877-16BE-4839-B7B4-2880560EB3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABEC715-868E-4C17-8B59-4A9EA83A2DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,22 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>2005</t>
   </si>
@@ -110,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -123,6 +108,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,16 +134,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C8834265-7D3A-44A6-85C9-1F389748A4D3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,416 +464,348 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>720</v>
-      </c>
-      <c r="C2" s="2">
-        <v>300</v>
-      </c>
-      <c r="D2" s="2">
-        <v>200</v>
+      <c r="B2" s="6">
+        <v>22622</v>
+      </c>
+      <c r="C2" s="5">
+        <v>16236</v>
+      </c>
+      <c r="D2">
+        <v>11806</v>
       </c>
       <c r="E2" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+        <v>15293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>800</v>
-      </c>
-      <c r="C3" s="2">
-        <v>375</v>
-      </c>
-      <c r="D3" s="2">
-        <v>240</v>
+      <c r="B3" s="6">
+        <v>28092</v>
+      </c>
+      <c r="C3" s="5">
+        <v>19121</v>
+      </c>
+      <c r="D3">
+        <v>14263</v>
       </c>
       <c r="E3" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+        <v>18653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>925</v>
-      </c>
-      <c r="C4" s="2">
-        <v>480</v>
-      </c>
-      <c r="D4" s="2">
-        <v>300</v>
+      <c r="B4" s="6">
+        <v>32042</v>
+      </c>
+      <c r="C4" s="5">
+        <v>21133</v>
+      </c>
+      <c r="D4">
+        <v>16969</v>
       </c>
       <c r="E4" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+        <v>20632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>925</v>
-      </c>
-      <c r="C5" s="2">
-        <v>590</v>
-      </c>
-      <c r="D5" s="2">
-        <v>411</v>
+      <c r="B5" s="6">
+        <v>30253</v>
+      </c>
+      <c r="C5" s="5">
+        <v>20504</v>
+      </c>
+      <c r="D5">
+        <v>15789</v>
       </c>
       <c r="E5" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+        <v>19536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C6" s="2">
-        <v>720</v>
-      </c>
-      <c r="D6" s="2">
-        <v>535</v>
+      <c r="B6" s="6">
+        <v>31379</v>
+      </c>
+      <c r="C6" s="5">
+        <v>21401</v>
+      </c>
+      <c r="D6">
+        <v>17120</v>
       </c>
       <c r="E6" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+        <v>20709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>1130</v>
-      </c>
-      <c r="C7" s="2">
-        <v>795</v>
-      </c>
-      <c r="D7" s="2">
-        <v>600</v>
+      <c r="B7" s="6">
+        <v>34420</v>
+      </c>
+      <c r="C7" s="5">
+        <v>23758</v>
+      </c>
+      <c r="D7">
+        <v>18578</v>
       </c>
       <c r="E7" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+        <v>22795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>1350</v>
-      </c>
-      <c r="C8" s="2">
-        <v>975</v>
-      </c>
-      <c r="D8" s="2">
-        <v>780</v>
+      <c r="B8" s="6">
+        <v>35144</v>
+      </c>
+      <c r="C8" s="5">
+        <v>24103</v>
+      </c>
+      <c r="D8">
+        <v>17773</v>
       </c>
       <c r="E8" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+        <v>23142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>1625</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1160</v>
-      </c>
-      <c r="D9" s="2">
-        <v>950</v>
+      <c r="B9" s="6">
+        <v>36128</v>
+      </c>
+      <c r="C9" s="5">
+        <v>25369</v>
+      </c>
+      <c r="D9">
+        <v>17780</v>
       </c>
       <c r="E9" s="2">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+        <v>24352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>1560</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1150</v>
-      </c>
-      <c r="D10" s="2">
-        <v>895</v>
+      <c r="B10" s="6">
+        <v>39914</v>
+      </c>
+      <c r="C10" s="5">
+        <v>28005</v>
+      </c>
+      <c r="D10">
+        <v>18703</v>
       </c>
       <c r="E10" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+        <v>27121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>1640</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1210</v>
-      </c>
-      <c r="D11" s="2">
-        <v>950</v>
+      <c r="B11" s="6">
+        <v>44614</v>
+      </c>
+      <c r="C11" s="5">
+        <v>30604</v>
+      </c>
+      <c r="D11">
+        <v>19940</v>
       </c>
       <c r="E11" s="2">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>1750</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1340</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1030</v>
+      <c r="B12" s="6">
+        <v>52432</v>
+      </c>
+      <c r="C12" s="5">
+        <v>36470</v>
+      </c>
+      <c r="D12">
+        <v>22052</v>
       </c>
       <c r="E12" s="2">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+        <v>34645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>1820</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1360</v>
-      </c>
-      <c r="D13" s="2">
-        <v>998</v>
+      <c r="B13" s="6">
+        <v>57458</v>
+      </c>
+      <c r="C13" s="5">
+        <v>40547</v>
+      </c>
+      <c r="D13">
+        <v>24684</v>
       </c>
       <c r="E13" s="2">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+        <v>37782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>1895</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1415</v>
-      </c>
-      <c r="D14" s="2">
-        <v>995</v>
+      <c r="B14" s="6">
+        <v>58663</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44779</v>
+      </c>
+      <c r="D14">
+        <v>28287</v>
       </c>
       <c r="E14" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+        <v>39088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>2042</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1569</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1000</v>
+      <c r="B15" s="6">
+        <v>55366</v>
+      </c>
+      <c r="C15" s="5">
+        <v>43345</v>
+      </c>
+      <c r="D15">
+        <v>27903</v>
       </c>
       <c r="E15" s="2">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+        <v>36922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1710</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1075</v>
+      <c r="B16" s="6">
+        <v>57038</v>
+      </c>
+      <c r="C16" s="5">
+        <v>44035</v>
+      </c>
+      <c r="D16">
+        <v>29845</v>
       </c>
       <c r="E16" s="2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+        <v>38270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>2750</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2100</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1245</v>
+      <c r="B17" s="6">
+        <v>60375</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45928</v>
+      </c>
+      <c r="D17">
+        <v>31355</v>
       </c>
       <c r="E17" s="2">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+        <v>40888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2350</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1395</v>
+      <c r="B18" s="6">
+        <v>65017</v>
+      </c>
+      <c r="C18" s="5">
+        <v>49379</v>
+      </c>
+      <c r="D18">
+        <v>35507</v>
       </c>
       <c r="E18" s="2">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>3100</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2600</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1600</v>
+      <c r="B19" s="6">
+        <v>65061</v>
+      </c>
+      <c r="C19" s="5">
+        <v>48554</v>
+      </c>
+      <c r="D19">
+        <v>35772</v>
       </c>
       <c r="E19" s="2">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2900</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1610</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2950</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2520</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1700</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3120</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2650</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1850</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3313</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2850</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2095</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3350</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2125</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1450</v>
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="3">
+        <v>63703</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45844</v>
+      </c>
+      <c r="D20">
+        <v>33830</v>
+      </c>
+      <c r="E20" s="3">
+        <v>43422</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A3:A24" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>